--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.4462193522507</v>
+        <v>16.43128366666667</v>
       </c>
       <c r="H2">
-        <v>14.4462193522507</v>
+        <v>49.293851</v>
       </c>
       <c r="I2">
-        <v>0.1598757080590913</v>
+        <v>0.1589154288049893</v>
       </c>
       <c r="J2">
-        <v>0.1598757080590913</v>
+        <v>0.1589154288049892</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.388990884107</v>
+        <v>50.159191</v>
       </c>
       <c r="N2">
-        <v>34.388990884107</v>
+        <v>150.477573</v>
       </c>
       <c r="O2">
-        <v>0.2405525014882315</v>
+        <v>0.3080127083327998</v>
       </c>
       <c r="P2">
-        <v>0.2405525014882315</v>
+        <v>0.3080127083327999</v>
       </c>
       <c r="Q2">
-        <v>496.7909056143595</v>
+        <v>824.1798958115138</v>
       </c>
       <c r="R2">
-        <v>496.7909056143595</v>
+        <v>7417.619062303624</v>
       </c>
       <c r="S2">
-        <v>0.03845850150081662</v>
+        <v>0.04894797162209297</v>
       </c>
       <c r="T2">
-        <v>0.03845850150081662</v>
+        <v>0.04894797162209297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.4462193522507</v>
+        <v>16.43128366666667</v>
       </c>
       <c r="H3">
-        <v>14.4462193522507</v>
+        <v>49.293851</v>
       </c>
       <c r="I3">
-        <v>0.1598757080590913</v>
+        <v>0.1589154288049893</v>
       </c>
       <c r="J3">
-        <v>0.1598757080590913</v>
+        <v>0.1589154288049892</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.297773348796</v>
+        <v>35.41899766666667</v>
       </c>
       <c r="N3">
-        <v>35.297773348796</v>
+        <v>106.256993</v>
       </c>
       <c r="O3">
-        <v>0.2469094747395347</v>
+        <v>0.2174975548896536</v>
       </c>
       <c r="P3">
-        <v>0.2469094747395347</v>
+        <v>0.2174975548896536</v>
       </c>
       <c r="Q3">
-        <v>509.9193764427358</v>
+        <v>581.9795978500049</v>
       </c>
       <c r="R3">
-        <v>509.9193764427358</v>
+        <v>5237.816380650043</v>
       </c>
       <c r="S3">
-        <v>0.03947482710048142</v>
+        <v>0.03456371719932599</v>
       </c>
       <c r="T3">
-        <v>0.03947482710048142</v>
+        <v>0.03456371719932599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.4462193522507</v>
+        <v>16.43128366666667</v>
       </c>
       <c r="H4">
-        <v>14.4462193522507</v>
+        <v>49.293851</v>
       </c>
       <c r="I4">
-        <v>0.1598757080590913</v>
+        <v>0.1589154288049893</v>
       </c>
       <c r="J4">
-        <v>0.1598757080590913</v>
+        <v>0.1589154288049892</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.4221226868267</v>
+        <v>66.72104766666666</v>
       </c>
       <c r="N4">
-        <v>63.4221226868267</v>
+        <v>200.163143</v>
       </c>
       <c r="O4">
-        <v>0.4436405334900494</v>
+        <v>0.4097141557688168</v>
       </c>
       <c r="P4">
-        <v>0.4436405334900494</v>
+        <v>0.4097141557688168</v>
       </c>
       <c r="Q4">
-        <v>916.209896119254</v>
+        <v>1096.312460748188</v>
       </c>
       <c r="R4">
-        <v>916.209896119254</v>
+        <v>9866.812146733693</v>
       </c>
       <c r="S4">
-        <v>0.07092734441543466</v>
+        <v>0.06510990075147569</v>
       </c>
       <c r="T4">
-        <v>0.07092734441543466</v>
+        <v>0.06510990075147569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.4462193522507</v>
+        <v>16.43128366666667</v>
       </c>
       <c r="H5">
-        <v>14.4462193522507</v>
+        <v>49.293851</v>
       </c>
       <c r="I5">
-        <v>0.1598757080590913</v>
+        <v>0.1589154288049893</v>
       </c>
       <c r="J5">
-        <v>0.1598757080590913</v>
+        <v>0.1589154288049892</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.849472155116249</v>
+        <v>10.54856066666667</v>
       </c>
       <c r="N5">
-        <v>9.849472155116249</v>
+        <v>31.645682</v>
       </c>
       <c r="O5">
-        <v>0.06889749028218456</v>
+        <v>0.06477558100872968</v>
       </c>
       <c r="P5">
-        <v>0.06889749028218456</v>
+        <v>0.06477558100872968</v>
       </c>
       <c r="Q5">
-        <v>142.2876352566948</v>
+        <v>173.3263925890425</v>
       </c>
       <c r="R5">
-        <v>142.2876352566948</v>
+        <v>1559.937533301382</v>
       </c>
       <c r="S5">
-        <v>0.01101503504235862</v>
+        <v>0.0102938392320946</v>
       </c>
       <c r="T5">
-        <v>0.01101503504235862</v>
+        <v>0.01029383923209459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.51790322856646</v>
+        <v>9.522468333333334</v>
       </c>
       <c r="H6">
-        <v>9.51790322856646</v>
+        <v>28.567405</v>
       </c>
       <c r="I6">
-        <v>0.1053342387237044</v>
+        <v>0.09209670827748465</v>
       </c>
       <c r="J6">
-        <v>0.1053342387237044</v>
+        <v>0.09209670827748463</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.388990884107</v>
+        <v>50.159191</v>
       </c>
       <c r="N6">
-        <v>34.388990884107</v>
+        <v>150.477573</v>
       </c>
       <c r="O6">
-        <v>0.2405525014882315</v>
+        <v>0.3080127083327998</v>
       </c>
       <c r="P6">
-        <v>0.2405525014882315</v>
+        <v>0.3080127083327999</v>
       </c>
       <c r="Q6">
-        <v>327.3110873629846</v>
+        <v>477.6393079231184</v>
       </c>
       <c r="R6">
-        <v>327.3110873629846</v>
+        <v>4298.753771308066</v>
       </c>
       <c r="S6">
-        <v>0.02533841461734563</v>
+        <v>0.02836695654508383</v>
       </c>
       <c r="T6">
-        <v>0.02533841461734563</v>
+        <v>0.02836695654508383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.51790322856646</v>
+        <v>9.522468333333334</v>
       </c>
       <c r="H7">
-        <v>9.51790322856646</v>
+        <v>28.567405</v>
       </c>
       <c r="I7">
-        <v>0.1053342387237044</v>
+        <v>0.09209670827748465</v>
       </c>
       <c r="J7">
-        <v>0.1053342387237044</v>
+        <v>0.09209670827748463</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.297773348796</v>
+        <v>35.41899766666667</v>
       </c>
       <c r="N7">
-        <v>35.297773348796</v>
+        <v>106.256993</v>
       </c>
       <c r="O7">
-        <v>0.2469094747395347</v>
+        <v>0.2174975548896536</v>
       </c>
       <c r="P7">
-        <v>0.2469094747395347</v>
+        <v>0.2174975548896536</v>
       </c>
       <c r="Q7">
-        <v>335.9607909177126</v>
+        <v>337.2762836792406</v>
       </c>
       <c r="R7">
-        <v>335.9607909177126</v>
+        <v>3035.486553113165</v>
       </c>
       <c r="S7">
-        <v>0.02600802155535861</v>
+        <v>0.02003080886373863</v>
       </c>
       <c r="T7">
-        <v>0.02600802155535861</v>
+        <v>0.02003080886373863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.51790322856646</v>
+        <v>9.522468333333334</v>
       </c>
       <c r="H8">
-        <v>9.51790322856646</v>
+        <v>28.567405</v>
       </c>
       <c r="I8">
-        <v>0.1053342387237044</v>
+        <v>0.09209670827748465</v>
       </c>
       <c r="J8">
-        <v>0.1053342387237044</v>
+        <v>0.09209670827748463</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.4221226868267</v>
+        <v>66.72104766666666</v>
       </c>
       <c r="N8">
-        <v>63.4221226868267</v>
+        <v>200.163143</v>
       </c>
       <c r="O8">
-        <v>0.4436405334900494</v>
+        <v>0.4097141557688168</v>
       </c>
       <c r="P8">
-        <v>0.4436405334900494</v>
+        <v>0.4097141557688168</v>
       </c>
       <c r="Q8">
-        <v>603.645626283486</v>
+        <v>635.3490635726572</v>
       </c>
       <c r="R8">
-        <v>603.645626283486</v>
+        <v>5718.141572153915</v>
       </c>
       <c r="S8">
-        <v>0.04673053786215245</v>
+        <v>0.03773332508099662</v>
       </c>
       <c r="T8">
-        <v>0.04673053786215245</v>
+        <v>0.03773332508099662</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.51790322856646</v>
+        <v>9.522468333333334</v>
       </c>
       <c r="H9">
-        <v>9.51790322856646</v>
+        <v>28.567405</v>
       </c>
       <c r="I9">
-        <v>0.1053342387237044</v>
+        <v>0.09209670827748465</v>
       </c>
       <c r="J9">
-        <v>0.1053342387237044</v>
+        <v>0.09209670827748463</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.849472155116249</v>
+        <v>10.54856066666667</v>
       </c>
       <c r="N9">
-        <v>9.849472155116249</v>
+        <v>31.645682</v>
       </c>
       <c r="O9">
-        <v>0.06889749028218456</v>
+        <v>0.06477558100872968</v>
       </c>
       <c r="P9">
-        <v>0.06889749028218456</v>
+        <v>0.06477558100872968</v>
       </c>
       <c r="Q9">
-        <v>93.74632282485641</v>
+        <v>100.4483349105789</v>
       </c>
       <c r="R9">
-        <v>93.74632282485641</v>
+        <v>904.03501419521</v>
       </c>
       <c r="S9">
-        <v>0.007257264688847733</v>
+        <v>0.005965617787665552</v>
       </c>
       <c r="T9">
-        <v>0.007257264688847733</v>
+        <v>0.005965617787665551</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.0585995901094</v>
+        <v>76.05823733333334</v>
       </c>
       <c r="H10">
-        <v>65.0585995901094</v>
+        <v>228.174712</v>
       </c>
       <c r="I10">
-        <v>0.7200008127511327</v>
+        <v>0.7355984867145992</v>
       </c>
       <c r="J10">
-        <v>0.7200008127511327</v>
+        <v>0.735598486714599</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.388990884107</v>
+        <v>50.159191</v>
       </c>
       <c r="N10">
-        <v>34.388990884107</v>
+        <v>150.477573</v>
       </c>
       <c r="O10">
-        <v>0.2405525014882315</v>
+        <v>0.3080127083327998</v>
       </c>
       <c r="P10">
-        <v>0.2405525014882315</v>
+        <v>0.3080127083327999</v>
       </c>
       <c r="Q10">
-        <v>2237.29958823704</v>
+        <v>3815.019653525997</v>
       </c>
       <c r="R10">
-        <v>2237.29958823704</v>
+        <v>34335.17688173398</v>
       </c>
       <c r="S10">
-        <v>0.1731979965808447</v>
+        <v>0.2265736821384728</v>
       </c>
       <c r="T10">
-        <v>0.1731979965808447</v>
+        <v>0.2265736821384728</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>65.0585995901094</v>
+        <v>76.05823733333334</v>
       </c>
       <c r="H11">
-        <v>65.0585995901094</v>
+        <v>228.174712</v>
       </c>
       <c r="I11">
-        <v>0.7200008127511327</v>
+        <v>0.7355984867145992</v>
       </c>
       <c r="J11">
-        <v>0.7200008127511327</v>
+        <v>0.735598486714599</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>35.297773348796</v>
+        <v>35.41899766666667</v>
       </c>
       <c r="N11">
-        <v>35.297773348796</v>
+        <v>106.256993</v>
       </c>
       <c r="O11">
-        <v>0.2469094747395347</v>
+        <v>0.2174975548896536</v>
       </c>
       <c r="P11">
-        <v>0.2469094747395347</v>
+        <v>0.2174975548896536</v>
       </c>
       <c r="Q11">
-        <v>2296.423702721754</v>
+        <v>2693.906530640113</v>
       </c>
       <c r="R11">
-        <v>2296.423702721754</v>
+        <v>24245.15877576102</v>
       </c>
       <c r="S11">
-        <v>0.1777750224884202</v>
+        <v>0.1599908722409547</v>
       </c>
       <c r="T11">
-        <v>0.1777750224884202</v>
+        <v>0.1599908722409546</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>65.0585995901094</v>
+        <v>76.05823733333334</v>
       </c>
       <c r="H12">
-        <v>65.0585995901094</v>
+        <v>228.174712</v>
       </c>
       <c r="I12">
-        <v>0.7200008127511327</v>
+        <v>0.7355984867145992</v>
       </c>
       <c r="J12">
-        <v>0.7200008127511327</v>
+        <v>0.735598486714599</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.4221226868267</v>
+        <v>66.72104766666666</v>
       </c>
       <c r="N12">
-        <v>63.4221226868267</v>
+        <v>200.163143</v>
       </c>
       <c r="O12">
-        <v>0.4436405334900494</v>
+        <v>0.4097141557688168</v>
       </c>
       <c r="P12">
-        <v>0.4436405334900494</v>
+        <v>0.4097141557688168</v>
       </c>
       <c r="Q12">
-        <v>4126.154485037051</v>
+        <v>5074.685278559979</v>
       </c>
       <c r="R12">
-        <v>4126.154485037051</v>
+        <v>45672.16750703981</v>
       </c>
       <c r="S12">
-        <v>0.3194215446821817</v>
+        <v>0.3013851129690912</v>
       </c>
       <c r="T12">
-        <v>0.3194215446821817</v>
+        <v>0.3013851129690912</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>65.0585995901094</v>
+        <v>76.05823733333334</v>
       </c>
       <c r="H13">
-        <v>65.0585995901094</v>
+        <v>228.174712</v>
       </c>
       <c r="I13">
-        <v>0.7200008127511327</v>
+        <v>0.7355984867145992</v>
       </c>
       <c r="J13">
-        <v>0.7200008127511327</v>
+        <v>0.735598486714599</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.849472155116249</v>
+        <v>10.54856066666667</v>
       </c>
       <c r="N13">
-        <v>9.849472155116249</v>
+        <v>31.645682</v>
       </c>
       <c r="O13">
-        <v>0.06889749028218456</v>
+        <v>0.06477558100872968</v>
       </c>
       <c r="P13">
-        <v>0.06889749028218456</v>
+        <v>0.06477558100872968</v>
       </c>
       <c r="Q13">
-        <v>640.7928651136399</v>
+        <v>802.3049307103983</v>
       </c>
       <c r="R13">
-        <v>640.7928651136399</v>
+        <v>7220.744376393584</v>
       </c>
       <c r="S13">
-        <v>0.04960624899968615</v>
+        <v>0.04764881936608048</v>
       </c>
       <c r="T13">
-        <v>0.04960624899968615</v>
+        <v>0.04764881936608047</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.33634192723692</v>
+        <v>1.384413333333333</v>
       </c>
       <c r="H14">
-        <v>1.33634192723692</v>
+        <v>4.15324</v>
       </c>
       <c r="I14">
-        <v>0.01478924046607163</v>
+        <v>0.01338937620292709</v>
       </c>
       <c r="J14">
-        <v>0.01478924046607163</v>
+        <v>0.01338937620292709</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.388990884107</v>
+        <v>50.159191</v>
       </c>
       <c r="N14">
-        <v>34.388990884107</v>
+        <v>150.477573</v>
       </c>
       <c r="O14">
-        <v>0.2405525014882315</v>
+        <v>0.3080127083327998</v>
       </c>
       <c r="P14">
-        <v>0.2405525014882315</v>
+        <v>0.3080127083327999</v>
       </c>
       <c r="Q14">
-        <v>45.95545035380042</v>
+        <v>69.44105280961334</v>
       </c>
       <c r="R14">
-        <v>45.95545035380042</v>
+        <v>624.96947528652</v>
       </c>
       <c r="S14">
-        <v>0.00355758878922451</v>
+        <v>0.004124098027150312</v>
       </c>
       <c r="T14">
-        <v>0.00355758878922451</v>
+        <v>0.004124098027150312</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.33634192723692</v>
+        <v>1.384413333333333</v>
       </c>
       <c r="H15">
-        <v>1.33634192723692</v>
+        <v>4.15324</v>
       </c>
       <c r="I15">
-        <v>0.01478924046607163</v>
+        <v>0.01338937620292709</v>
       </c>
       <c r="J15">
-        <v>0.01478924046607163</v>
+        <v>0.01338937620292709</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>35.297773348796</v>
+        <v>35.41899766666667</v>
       </c>
       <c r="N15">
-        <v>35.297773348796</v>
+        <v>106.256993</v>
       </c>
       <c r="O15">
-        <v>0.2469094747395347</v>
+        <v>0.2174975548896536</v>
       </c>
       <c r="P15">
-        <v>0.2469094747395347</v>
+        <v>0.2174975548896536</v>
       </c>
       <c r="Q15">
-        <v>47.16989446410204</v>
+        <v>49.03453262303557</v>
       </c>
       <c r="R15">
-        <v>47.16989446410204</v>
+        <v>441.3107936073201</v>
       </c>
       <c r="S15">
-        <v>0.003651603595274418</v>
+        <v>0.002912156585634356</v>
       </c>
       <c r="T15">
-        <v>0.003651603595274418</v>
+        <v>0.002912156585634356</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.33634192723692</v>
+        <v>1.384413333333333</v>
       </c>
       <c r="H16">
-        <v>1.33634192723692</v>
+        <v>4.15324</v>
       </c>
       <c r="I16">
-        <v>0.01478924046607163</v>
+        <v>0.01338937620292709</v>
       </c>
       <c r="J16">
-        <v>0.01478924046607163</v>
+        <v>0.01338937620292709</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.4221226868267</v>
+        <v>66.72104766666666</v>
       </c>
       <c r="N16">
-        <v>63.4221226868267</v>
+        <v>200.163143</v>
       </c>
       <c r="O16">
-        <v>0.4436405334900494</v>
+        <v>0.4097141557688168</v>
       </c>
       <c r="P16">
-        <v>0.4436405334900494</v>
+        <v>0.4097141557688168</v>
       </c>
       <c r="Q16">
-        <v>84.75364166077037</v>
+        <v>92.36950800370222</v>
       </c>
       <c r="R16">
-        <v>84.75364166077037</v>
+        <v>831.32557203332</v>
       </c>
       <c r="S16">
-        <v>0.006561106530280647</v>
+        <v>0.005485816967253358</v>
       </c>
       <c r="T16">
-        <v>0.006561106530280647</v>
+        <v>0.005485816967253357</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.33634192723692</v>
+        <v>1.384413333333333</v>
       </c>
       <c r="H17">
-        <v>1.33634192723692</v>
+        <v>4.15324</v>
       </c>
       <c r="I17">
-        <v>0.01478924046607163</v>
+        <v>0.01338937620292709</v>
       </c>
       <c r="J17">
-        <v>0.01478924046607163</v>
+        <v>0.01338937620292709</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.849472155116249</v>
+        <v>10.54856066666667</v>
       </c>
       <c r="N17">
-        <v>9.849472155116249</v>
+        <v>31.645682</v>
       </c>
       <c r="O17">
-        <v>0.06889749028218456</v>
+        <v>0.06477558100872968</v>
       </c>
       <c r="P17">
-        <v>0.06889749028218456</v>
+        <v>0.06477558100872968</v>
       </c>
       <c r="Q17">
-        <v>13.16226260203443</v>
+        <v>14.60356803440889</v>
       </c>
       <c r="R17">
-        <v>13.16226260203443</v>
+        <v>131.43211230968</v>
       </c>
       <c r="S17">
-        <v>0.001018941551292061</v>
+        <v>0.000867304622889061</v>
       </c>
       <c r="T17">
-        <v>0.001018941551292061</v>
+        <v>0.0008673046228890609</v>
       </c>
     </row>
   </sheetData>
